--- a/SauceDemo_BookStore_TestCases_BugReports.xlsx
+++ b/SauceDemo_BookStore_TestCases_BugReports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44791\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B863413A-530A-48F4-A35C-7B7B0A7B3CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473FCBFF-CE94-483A-947E-2B76FD33A710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SauceDemo_Login" sheetId="1" r:id="rId1"/>
@@ -1248,7 +1248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1548,7 +1548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1802,7 +1802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2033,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2048,7 +2048,7 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2564,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
